--- a/wti模型3.0/eta/迪拜油_月度数据.xlsx
+++ b/wti模型3.0/eta/迪拜油_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>57.9032</v>
+        <v>79.86069999999999</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.7867</v>
+        <v>63.94</v>
       </c>
       <c r="C3" t="n">
-        <v>63.8201</v>
+        <v>65.536</v>
       </c>
     </row>
     <row r="4">
